--- a/biology/Botanique/Utriculaire/Utriculaire.xlsx
+++ b/biology/Botanique/Utriculaire/Utriculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Utricularia
-Le genre Utricularia, les utriculaires, est le genre de plantes carnivores qui compte le plus grand nombre d'espèces, soit environ 180. La plupart de celles-ci sont aquatiques. Le genre appartient à la famille des Lentibulariaceae. Leur nom provient de latin utriculus, « petite outre », par allusion à la forme des pièges à insectes que portent certaines espèces[1].
+Le genre Utricularia, les utriculaires, est le genre de plantes carnivores qui compte le plus grand nombre d'espèces, soit environ 180. La plupart de celles-ci sont aquatiques. Le genre appartient à la famille des Lentibulariaceae. Leur nom provient de latin utriculus, « petite outre », par allusion à la forme des pièges à insectes que portent certaines espèces.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes généralement dépourvues de racines. Selon les espèces, elles vivent en épiphytes dans une atmosphère humide, sur un sol humide ou dans un milieu aquatique.
 Elles produisent deux types de feuilles :
 des feuilles à rôle photosynthétique,
-des feuilles souterraines ou subaquatiques, démunies de pigments et en forme d'outre, dont la taille est de l'ordre du millimètre ; elles permettent la capture des proies par aspiration (préférentiellement du zooplancton du type  Gastrotricha, Rotifères, puces d'eau et copépodes consommant des micro-algues[2] sur les rameaux et les pièges)[3].
-Le piège est fermé par une sorte de clapet. L'ouverture est déclenchée au contact des poils sensitifs situés autour de ce clapet. Ce type de piège est dit actif. En 2011, une équipe du Laboratoire interdisciplinaire de physique (LIPhy) décrypte à l'aide d'une caméra haute cadence le processus mécanique permettant à l'utriculaire, de prendre au piège en un millième de seconde les petits animaux qui s'en approchent[4]. La description a été publiée dans la revue Proceedings of the Royal Society.
+des feuilles souterraines ou subaquatiques, démunies de pigments et en forme d'outre, dont la taille est de l'ordre du millimètre ; elles permettent la capture des proies par aspiration (préférentiellement du zooplancton du type  Gastrotricha, Rotifères, puces d'eau et copépodes consommant des micro-algues sur les rameaux et les pièges).
+Le piège est fermé par une sorte de clapet. L'ouverture est déclenchée au contact des poils sensitifs situés autour de ce clapet. Ce type de piège est dit actif. En 2011, une équipe du Laboratoire interdisciplinaire de physique (LIPhy) décrypte à l'aide d'une caméra haute cadence le processus mécanique permettant à l'utriculaire, de prendre au piège en un millième de seconde les petits animaux qui s'en approchent. La description a été publiée dans la revue Proceedings of the Royal Society.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du latin utriculus, diminutif de uter, outre, cornuta, « cornue ; cornée », en référence aux petits sacs que portent les espèces de ce genre sur les segments des feuilles (ou sur les ramifications des branches, selon l'interprétation), et à l'éperon en forme de corne que porte l'arrière des fleurs.
 </t>
@@ -578,9 +594,11 @@
           <t>Génome</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les utriculaires sont les angiospermes dont le génome est le plus compact, inférieur à 100 millions de paires de bases[5]. Le nombre de leurs gènes est pourtant comparable à celui des autres plantes à fleurs. En conséquence, la fraction de leur génome qui est non codante est très limitée, de l'ordre de 3 à 5 %.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les utriculaires sont les angiospermes dont le génome est le plus compact, inférieur à 100 millions de paires de bases. Le nombre de leurs gènes est pourtant comparable à celui des autres plantes à fleurs. En conséquence, la fraction de leur génome qui est non codante est très limitée, de l'ordre de 3 à 5 %.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Utricularia alpina Jacquin
 Utricularia amethystina Salzm. ex St.-Hil. et Girard
@@ -653,7 +673,7 @@
 Utricularia racemosa Wallich
 Utricularia radiata Small
 Utricularia resupinata B.D. Greene ex Bigelow
-Utricularia sandersonii Oliver[6]
+Utricularia sandersonii Oliver
 Utricularia simulans Pilger
 Utricularia striata Le Conte ex Torrey
 Utricularia stygia G.Thor
